--- a/graphcase_experiments/graphs/enron/data/email_to_lbl.xlsx
+++ b/graphcase_experiments/graphs/enron/data/email_to_lbl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonpoppe/workspace/graphcase_experiments/graphcase_experiments/graphcase_experiments/graphs/enron/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BD396AC-C5F4-C245-977D-A89E7E72216F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AD20E3D9-547E-2C44-9017-B568B2AF4AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31620" yWindow="-10120" windowWidth="27640" windowHeight="16440"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="email_to_lbl" sheetId="1" r:id="rId1"/>
@@ -2337,7 +2337,7 @@
   <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+      <selection activeCell="C228" sqref="C228:C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10582,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>388</v>
       </c>
@@ -12529,7 +12529,7 @@
   <autoFilter ref="A1:I351">
     <filterColumn colId="1">
       <filters>
-        <filter val="gay-r"/>
+        <filter val="gang-l"/>
         <filter val="gay-randall"/>
         <filter val="gay-rob"/>
       </filters>
